--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslw_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslw_vorlage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8426400-7AC0-4FAD-849F-CA71BE49EDF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B360B00D-C23C-4031-B758-AF58E13E0893}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,6 +712,54 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -743,54 +791,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1216,84 +1216,84 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="44" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="24" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="47" t="s">
         <v>31</v>
       </c>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:21" s="3" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="46" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="50" t="s">
+      <c r="J3" s="37"/>
+      <c r="K3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="33" t="s">
+      <c r="L3" s="38"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="32"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="48"/>
       <c r="R3"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:21" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="15" t="s">
         <v>28</v>
       </c>
@@ -1315,11 +1315,11 @@
       <c r="L4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="32"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="48"/>
       <c r="R4"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -2259,6 +2259,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="N3:N4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:E4"/>
@@ -2269,19 +2275,17 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="N3:N4"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
+  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2327,20 +2331,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -2532,7 +2523,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -2540,23 +2548,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD45C59E-C13E-4B92-9551-AE1790848EFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2573,4 +2565,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslw_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sslw_vorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws_intern\planpro\set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B360B00D-C23C-4031-B758-AF58E13E0893}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A8F54-5001-4B22-AC09-D87DECF30C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sslw_Beispielbefüllung" sheetId="8" r:id="rId1"/>
@@ -174,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -199,17 +199,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -233,43 +222,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -334,80 +292,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -438,159 +322,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -619,10 +362,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -630,10 +373,10 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -641,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -668,42 +411,33 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -712,85 +446,34 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -811,9 +494,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -851,9 +534,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,26 +569,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -938,26 +604,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1134,7 +783,7 @@
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q4"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,7 +804,7 @@
     <col min="14" max="14" width="7.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="1" customWidth="1"/>
-    <col min="17" max="17" width="57.42578125" style="14" customWidth="1"/>
+    <col min="17" max="17" width="57.42578125" style="10" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.42578125" style="2"/>
@@ -1197,191 +846,177 @@
       <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="33" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="40" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="40" t="s">
+      <c r="O2" s="30"/>
+      <c r="P2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="27" t="s">
         <v>31</v>
       </c>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:21" s="3" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="39" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="49" t="s">
+      <c r="L3" s="23"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="43" t="s">
+      <c r="O3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="48"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="28"/>
       <c r="R3"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:21" s="3" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="15" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="48"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="28"/>
       <c r="R4"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:21" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="13"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="9"/>
       <c r="R5"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="20"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="22"/>
+      <c r="B7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8"/>
@@ -2259,12 +1894,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="N3:N4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:E4"/>
@@ -2275,6 +1904,12 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="N3:N4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -2282,56 +1917,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -2523,6 +2108,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2533,22 +2168,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD45C59E-C13E-4B92-9551-AE1790848EFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2567,6 +2186,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
   <ds:schemaRefs>
